--- a/Spreadsheet Software/Jewlery_Log.xlsx
+++ b/Spreadsheet Software/Jewlery_Log.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Good_Will_Warehouse_Management_Software\Spreadsheet Software\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6FD3BC-ADAE-4915-A859-6C4F3B83F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1740" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tote/ Gaylord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Rec'vd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store # </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Date Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifest # </t>
+  </si>
+  <si>
+    <t>Seal #</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -65,9 +103,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -151,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -328,27 +363,64 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="A3:H7"/>
+      <selection activeCell="I35" sqref="A3:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="60.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>